--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,19 +59,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Siendou</t>
+    <t>D1K</t>
   </si>
   <si>
-    <t>AK</t>
+    <t>坛洛</t>
   </si>
   <si>
-    <t>KeurIbraDia</t>
+    <t>DK</t>
   </si>
   <si>
-    <t>Fatick</t>
+    <t>平果</t>
   </si>
   <si>
-    <t>Kaolack</t>
+    <t>田东北</t>
+  </si>
+  <si>
+    <t>田阳</t>
+  </si>
+  <si>
+    <t>百色</t>
+  </si>
+  <si>
+    <t>南宁</t>
+  </si>
+  <si>
+    <t>隆安</t>
   </si>
 </sst>
 </file>
@@ -226,6 +238,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -569,13 +586,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -584,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1">
@@ -592,22 +609,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>58.1</v>
+        <v>44.1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
@@ -615,22 +632,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>98.3</v>
+        <v>83.05</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1">
@@ -638,56 +655,92 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>148.19999999999999</v>
+        <v>108.35</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="6">
+        <v>156.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="7">
+        <v>192.54</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="6">
+        <v>223.71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">
@@ -11668,13 +11721,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -11683,7 +11736,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1">
@@ -11691,22 +11744,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>58.1</v>
+        <v>44.1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
@@ -11714,22 +11767,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>98.3</v>
+        <v>83.05</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1">
@@ -11737,56 +11790,92 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>148.19999999999999</v>
+        <v>108.35</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="6">
+        <v>156.5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="7">
+        <v>192.54</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="6">
+        <v>223.71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,31 +59,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>D1K</t>
+    <t>长沙南</t>
   </si>
   <si>
-    <t>坛洛</t>
+    <t xml:space="preserve"> AK</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>榔梨</t>
   </si>
   <si>
-    <t>平果</t>
-  </si>
-  <si>
-    <t>田东北</t>
-  </si>
-  <si>
-    <t>田阳</t>
-  </si>
-  <si>
-    <t>百色</t>
-  </si>
-  <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>隆安</t>
+    <t>黄花机场</t>
   </si>
 </sst>
 </file>
@@ -535,7 +520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -586,13 +571,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -601,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1">
@@ -609,22 +594,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>44.1</v>
+        <v>7.49</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
@@ -632,115 +617,67 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>83.05</v>
+        <v>18.445</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>108.35</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>156.5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>192.54</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>223.71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">
@@ -11670,7 +11607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11721,13 +11658,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -11736,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1">
@@ -11744,22 +11681,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>44.1</v>
+        <v>7.49</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
@@ -11767,115 +11704,67 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>83.05</v>
+        <v>18.445</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>108.35</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>156.5</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>192.54</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>223.71</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,16 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长沙南</t>
+    <t>南宁</t>
   </si>
   <si>
-    <t xml:space="preserve"> AK</t>
+    <t>D1K</t>
   </si>
   <si>
-    <t>榔梨</t>
+    <t>坛洛</t>
   </si>
   <si>
-    <t>黄花机场</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>隆安东</t>
   </si>
 </sst>
 </file>
@@ -571,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -594,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>7.49</v>
+        <v>44.1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -606,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
@@ -617,19 +620,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>18.445</v>
+        <v>83.05</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>9</v>
@@ -11658,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11681,7 +11684,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>7.49</v>
+        <v>44.1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -11693,10 +11696,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
@@ -11704,19 +11707,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>18.445</v>
+        <v>83.05</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>9</v>

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,19 +59,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>南宁</t>
-  </si>
-  <si>
-    <t>D1K</t>
-  </si>
-  <si>
-    <t>坛洛</t>
+    <t>新盈</t>
   </si>
   <si>
     <t>DK</t>
   </si>
   <si>
-    <t>隆安东</t>
+    <t>洋浦</t>
   </si>
 </sst>
 </file>
@@ -574,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0</v>
+        <v>80.718000000000004</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -586,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -597,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>44.1</v>
+        <v>108.89</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -609,34 +603,22 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>83.05</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1">
       <c r="A6" s="3">
@@ -11661,7 +11643,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0</v>
+        <v>80.718000000000004</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11673,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -11684,7 +11666,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>44.1</v>
+        <v>108.89</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -11696,34 +11678,22 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>83.05</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1">
       <c r="A6" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,36 +78,6 @@
   </si>
   <si>
     <t>洋浦</t>
-  </si>
-  <si>
-    <t>棋子湾</t>
-  </si>
-  <si>
-    <t>东方</t>
-  </si>
-  <si>
-    <t>板桥</t>
-  </si>
-  <si>
-    <t>尖峰</t>
-  </si>
-  <si>
-    <t>乐东</t>
-  </si>
-  <si>
-    <t>崖城</t>
-  </si>
-  <si>
-    <t>D1K</t>
-  </si>
-  <si>
-    <t>凤凰机场</t>
-  </si>
-  <si>
-    <t>三亚</t>
-  </si>
-  <si>
-    <t>K</t>
   </si>
 </sst>
 </file>
@@ -724,185 +694,89 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>171.22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>215.31</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>250.17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>271.5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>297.58</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>323.44</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>354.76</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>363.072</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1">
       <c r="A16" s="3">
@@ -11931,185 +11805,89 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>171.22</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>215.31</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>250.17</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>271.5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>297.58</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>323.44</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>354.76</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>363.072</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1">
       <c r="A16" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>新盈</t>
-  </si>
-  <si>
-    <t>洋浦</t>
   </si>
 </sst>
 </file>
@@ -671,24 +668,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>108.89</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
@@ -11782,24 +11767,12 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>108.89</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -75,6 +75,39 @@
   </si>
   <si>
     <t>新盈</t>
+  </si>
+  <si>
+    <t>洋浦</t>
+  </si>
+  <si>
+    <t>棋子湾</t>
+  </si>
+  <si>
+    <t>东方</t>
+  </si>
+  <si>
+    <t>板桥</t>
+  </si>
+  <si>
+    <t>尖峰</t>
+  </si>
+  <si>
+    <t>乐东</t>
+  </si>
+  <si>
+    <t>崖城</t>
+  </si>
+  <si>
+    <t>D1K</t>
+  </si>
+  <si>
+    <t>凤凰机场</t>
+  </si>
+  <si>
+    <t>三亚</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -668,100 +701,208 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="6">
+        <v>108.89</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="7">
+        <v>171.22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="6">
+        <v>215.31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="7">
+        <v>250.17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="6">
+        <v>271.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="7">
+        <v>297.58</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6">
+        <v>323.44</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="7">
+        <v>354.76</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="6">
+        <v>363.072</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1">
       <c r="A16" s="3">
@@ -11767,100 +11908,208 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="6">
+        <v>108.89</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="7">
+        <v>171.22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="6">
+        <v>215.31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="7">
+        <v>250.17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="6">
+        <v>271.5</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="7">
+        <v>297.58</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6">
+        <v>323.44</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="7">
+        <v>354.76</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="6">
+        <v>363.072</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1">
       <c r="A16" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,46 +59,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平安</t>
+    <t>车站</t>
   </si>
   <si>
-    <t>D2K</t>
+    <t>AK</t>
   </si>
   <si>
-    <t>富宁</t>
+    <t>A1K</t>
   </si>
   <si>
-    <t>白腊寨</t>
+    <t xml:space="preserve"> AK</t>
   </si>
   <si>
-    <t>DK</t>
-  </si>
-  <si>
-    <t>广南</t>
-  </si>
-  <si>
-    <t>珠琳</t>
-  </si>
-  <si>
-    <t>普者黑</t>
-  </si>
-  <si>
-    <t>腻革龙</t>
-  </si>
-  <si>
-    <t>新哨</t>
-  </si>
-  <si>
-    <t>弥勒</t>
-  </si>
-  <si>
-    <t>石林板桥</t>
-  </si>
-  <si>
-    <t>阳宗海</t>
-  </si>
-  <si>
-    <t>昆明南</t>
+    <t xml:space="preserve">  AK</t>
   </si>
 </sst>
 </file>
@@ -603,7 +576,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>310.25</v>
+        <v>466.6</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -626,16 +599,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>356.27</v>
+        <v>477</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -649,22 +622,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>394.32499999999999</v>
+        <v>458</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -672,22 +645,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>427.8</v>
+        <v>473</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,19 +668,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>474.25</v>
+        <v>485.5</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -718,22 +691,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>520.875</v>
+        <v>499</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -741,22 +714,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>569.78</v>
+        <v>512</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -764,19 +737,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>621</v>
+        <v>520.5</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -787,22 +760,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>632.70000000000005</v>
+        <v>534</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -810,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>685.65</v>
+        <v>549</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -833,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>720.3</v>
+        <v>563.79999999999995</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -856,56 +829,92 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>734.33399999999995</v>
+        <v>578</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="6">
+        <v>590.70000000000005</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="7">
+        <v>601.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="6">
+        <v>617</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -11798,7 +11807,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>310.25</v>
+        <v>466.6</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11821,13 +11830,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>356.27</v>
+        <v>477</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -11844,22 +11853,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>394.32499999999999</v>
+        <v>458</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11867,22 +11876,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>427.8</v>
+        <v>473</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11890,19 +11899,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>474.25</v>
+        <v>485.5</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -11913,22 +11922,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>520.875</v>
+        <v>499</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11936,22 +11945,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>569.78</v>
+        <v>512</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11959,19 +11968,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>621</v>
+        <v>520.5</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -11982,22 +11991,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>632.70000000000005</v>
+        <v>534</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12005,22 +12014,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>685.65</v>
+        <v>549</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12028,22 +12037,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>720.3</v>
+        <v>563.79999999999995</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12051,56 +12060,92 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>734.33399999999995</v>
+        <v>578</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="6">
+        <v>590.70000000000005</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="B16" s="7">
+        <v>601.5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="6">
+        <v>617</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,19 +59,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车站</t>
+    <t>平安</t>
   </si>
   <si>
-    <t>AK</t>
+    <t>D2K</t>
   </si>
   <si>
-    <t>A1K</t>
+    <t>富宁</t>
   </si>
   <si>
-    <t xml:space="preserve"> AK</t>
+    <t>白腊寨</t>
   </si>
   <si>
-    <t xml:space="preserve">  AK</t>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>广南</t>
+  </si>
+  <si>
+    <t>珠琳</t>
+  </si>
+  <si>
+    <t>普者黑</t>
+  </si>
+  <si>
+    <t>腻革龙</t>
+  </si>
+  <si>
+    <t>新哨</t>
+  </si>
+  <si>
+    <t>弥勒</t>
+  </si>
+  <si>
+    <t>石林板桥</t>
+  </si>
+  <si>
+    <t>阳宗海</t>
+  </si>
+  <si>
+    <t>昆明南</t>
   </si>
 </sst>
 </file>
@@ -576,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>466.6</v>
+        <v>310.25</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -599,16 +626,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>477</v>
+        <v>356.27</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -622,22 +649,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>458</v>
+        <v>394.32499999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -645,22 +672,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>473</v>
+        <v>427.8</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -668,19 +695,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>485.5</v>
+        <v>474.25</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -691,22 +718,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>499</v>
+        <v>520.875</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -714,22 +741,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>512</v>
+        <v>569.78</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -737,19 +764,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>520.5</v>
+        <v>621</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -760,22 +787,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>534</v>
+        <v>632.70000000000005</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -783,22 +810,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>549</v>
+        <v>685.65</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -806,22 +833,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>563.79999999999995</v>
+        <v>720.3</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -829,92 +856,56 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>578</v>
+        <v>734.33399999999995</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>590.70000000000005</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>601.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>617</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
@@ -11807,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>466.6</v>
+        <v>310.25</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11830,13 +11821,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>477</v>
+        <v>356.27</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -11853,22 +11844,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>458</v>
+        <v>394.32499999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11876,22 +11867,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>473</v>
+        <v>427.8</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11899,19 +11890,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>485.5</v>
+        <v>474.25</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>12</v>
@@ -11922,22 +11913,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>499</v>
+        <v>520.875</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11945,22 +11936,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>512</v>
+        <v>569.78</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11968,19 +11959,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>520.5</v>
+        <v>621</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>12</v>
@@ -11991,22 +11982,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>534</v>
+        <v>632.70000000000005</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12014,22 +12005,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>549</v>
+        <v>685.65</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12037,22 +12028,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="6">
-        <v>563.79999999999995</v>
+        <v>720.3</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12060,92 +12051,56 @@
         <v>12</v>
       </c>
       <c r="B14" s="7">
-        <v>578</v>
+        <v>734.33399999999995</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>590.70000000000005</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="7">
-        <v>601.5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>3</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>617</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,25 +59,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>日照</t>
+  </si>
+  <si>
     <t>DK</t>
   </si>
   <si>
-    <t>黄桶北</t>
+    <t>奎山镇</t>
   </si>
   <si>
-    <t>六枝南</t>
+    <t>高兴镇</t>
   </si>
   <si>
-    <t xml:space="preserve"> DK</t>
+    <t>厉家寨</t>
   </si>
   <si>
-    <t>长箐</t>
+    <t>莒南北</t>
   </si>
   <si>
-    <t>冷坝</t>
-  </si>
-  <si>
-    <t>六盘水东</t>
+    <t>临沂</t>
   </si>
 </sst>
 </file>
@@ -582,22 +582,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>19.111069000000001</v>
+        <v>307.18900000000002</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -605,22 +605,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>48.305</v>
+        <v>305.43599999999998</v>
       </c>
       <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -628,112 +628,146 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>68.272999999999996</v>
+        <v>295.71899999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>85.825000000000003</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
+      <c r="D6" s="3">
+        <v>200</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>104.440129</v>
+        <v>1.3</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>350</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="6">
+        <v>22.920999999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="7">
+        <v>56.966000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="6">
+        <v>126.215</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11693,22 +11727,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>19.111069000000001</v>
+        <v>307.18900000000002</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11716,22 +11750,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>48.305</v>
+        <v>305.43599999999998</v>
       </c>
       <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>120</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
       <c r="F4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11739,112 +11773,146 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>68.272999999999996</v>
+        <v>295.71899999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>85.825000000000003</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
+      <c r="D6" s="3">
+        <v>200</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>104.440129</v>
+        <v>1.3</v>
       </c>
       <c r="C7" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>350</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="6">
+        <v>22.920999999999999</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="7">
+        <v>56.966000000000001</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="6">
+        <v>126.215</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,25 +59,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日照</t>
+    <t>内江北</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t>奎山镇</t>
+    <t>三元</t>
   </si>
   <si>
-    <t>高兴镇</t>
+    <t>白马西</t>
   </si>
   <si>
-    <t>厉家寨</t>
+    <t>凌家</t>
   </si>
   <si>
-    <t>莒南北</t>
+    <t>自贡东</t>
   </si>
   <si>
-    <t>临沂</t>
+    <t>富顺</t>
+  </si>
+  <si>
+    <t>中石</t>
+  </si>
+  <si>
+    <t>泸县</t>
+  </si>
+  <si>
+    <t>空港</t>
+  </si>
+  <si>
+    <t>泸州</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>307.18900000000002</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -591,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -605,16 +617,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>305.43599999999998</v>
+        <v>13.5</v>
       </c>
       <c r="C4" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -628,97 +640,105 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>295.71899999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>200</v>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>1.3</v>
+        <v>46.2</v>
       </c>
       <c r="C7" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>5.3</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>350</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>22.920999999999999</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -726,60 +746,78 @@
       <c r="F9" s="5">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>56.966000000000001</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>126.215</v>
+        <v>118.1</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
@@ -11727,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>307.18900000000002</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11736,7 +11774,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -11750,16 +11788,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>305.43599999999998</v>
+        <v>13.5</v>
       </c>
       <c r="C4" s="3">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -11773,97 +11811,105 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>295.71899999999999</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>200</v>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
-        <v>2</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>1.3</v>
+        <v>46.2</v>
       </c>
       <c r="C7" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>5.3</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C8" s="3">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>350</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>22.920999999999999</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -11871,60 +11917,78 @@
       <c r="F9" s="5">
         <v>3</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>56.966000000000001</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>126.215</v>
+        <v>118.1</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="7">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>泸州</t>
+  </si>
+  <si>
+    <t>赛娥</t>
   </si>
 </sst>
 </file>
@@ -617,13 +620,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>13.5</v>
+        <v>4.883</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -640,13 +643,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>19.899999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -663,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>29.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -686,19 +689,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>46.2</v>
+        <v>29.1</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -709,13 +712,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>68.900000000000006</v>
+        <v>46.2</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -732,13 +735,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>85</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -755,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>98.442999999999998</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -778,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>118.1</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -801,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>129.19999999999999</v>
+        <v>118.1</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -823,12 +826,24 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -11788,13 +11803,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>13.5</v>
+        <v>4.883</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -11811,13 +11826,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>19.899999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -11834,13 +11849,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>29.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -11857,19 +11872,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>46.2</v>
+        <v>29.1</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -11880,13 +11895,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>68.900000000000006</v>
+        <v>46.2</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -11903,13 +11918,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>85</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -11926,13 +11941,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>98.442999999999998</v>
+        <v>85</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -11949,13 +11964,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>118.1</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -11972,13 +11987,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>129.19999999999999</v>
+        <v>118.1</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -11994,12 +12009,24 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>泸州</t>
-  </si>
-  <si>
-    <t>赛娥</t>
   </si>
 </sst>
 </file>
@@ -620,13 +617,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>4.883</v>
+        <v>13.5</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -643,13 +640,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>13.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -666,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>19.899999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -689,19 +686,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>29.1</v>
+        <v>46.2</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -712,19 +709,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>46.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
@@ -735,19 +732,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>68.900000000000006</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>9</v>
@@ -758,19 +755,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>85</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
@@ -781,19 +778,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>98.442999999999998</v>
+        <v>118.1</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>9</v>
@@ -804,19 +801,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>118.1</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>9</v>
@@ -826,24 +823,12 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
@@ -11803,13 +11788,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>4.883</v>
+        <v>13.5</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -11826,13 +11811,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>13.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -11849,13 +11834,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>19.899999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
@@ -11872,19 +11857,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>29.1</v>
+        <v>46.2</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
@@ -11895,19 +11880,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>46.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
@@ -11918,19 +11903,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>68.900000000000006</v>
+        <v>85</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>9</v>
@@ -11941,19 +11926,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>85</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
@@ -11964,19 +11949,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>98.442999999999998</v>
+        <v>118.1</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>9</v>
@@ -11987,19 +11972,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>118.1</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>9</v>
@@ -12009,24 +11994,12 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>129.19999999999999</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,37 +59,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内江北</t>
+    <t>平安</t>
   </si>
   <si>
-    <t>IDK</t>
+    <t>D2K</t>
   </si>
   <si>
-    <t>三元</t>
+    <t>富宁</t>
   </si>
   <si>
-    <t>白马西</t>
+    <t>白腊寨</t>
   </si>
   <si>
-    <t>凌家</t>
+    <t>DK</t>
   </si>
   <si>
-    <t>自贡东</t>
+    <t>广南</t>
   </si>
   <si>
-    <t>富顺</t>
+    <t>珠琳</t>
   </si>
   <si>
-    <t>中石</t>
+    <t>普者黑</t>
   </si>
   <si>
-    <t>泸县</t>
+    <t>腻革龙</t>
   </si>
   <si>
-    <t>空港</t>
+    <t>新哨</t>
   </si>
   <si>
-    <t>泸州</t>
+    <t>弥勒</t>
+  </si>
+  <si>
+    <t>石林板桥</t>
+  </si>
+  <si>
+    <t>阳宗海</t>
+  </si>
+  <si>
+    <t>昆明南</t>
   </si>
 </sst>
 </file>
@@ -594,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>1.5</v>
+        <v>310.25</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -617,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>13.5</v>
+        <v>356.27</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -640,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>19.899999999999999</v>
+        <v>394.32499999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -652,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -663,22 +672,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>29.1</v>
+        <v>427.8</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -686,22 +695,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>46.2</v>
+        <v>474.25</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -709,22 +718,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>68.900000000000006</v>
+        <v>520.875</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -732,22 +741,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>85</v>
+        <v>569.78</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -755,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>98.442999999999998</v>
+        <v>621</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -778,22 +787,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>118.1</v>
+        <v>632.70000000000005</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -801,19 +810,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>129.19999999999999</v>
+        <v>685.65</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>9</v>
@@ -823,23 +832,47 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6">
+        <v>720.3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="7">
+        <v>734.33399999999995</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -11765,7 +11798,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>1.5</v>
+        <v>310.25</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11788,7 +11821,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>13.5</v>
+        <v>356.27</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -11811,7 +11844,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>19.899999999999999</v>
+        <v>394.32499999999999</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -11823,10 +11856,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11834,22 +11867,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>29.1</v>
+        <v>427.8</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11857,22 +11890,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>46.2</v>
+        <v>474.25</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11880,22 +11913,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>68.900000000000006</v>
+        <v>520.875</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11903,22 +11936,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>85</v>
+        <v>569.78</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11926,22 +11959,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="7">
-        <v>98.442999999999998</v>
+        <v>621</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11949,22 +11982,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="6">
-        <v>118.1</v>
+        <v>632.70000000000005</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
       <c r="F11" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11972,19 +12005,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7">
-        <v>129.19999999999999</v>
+        <v>685.65</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>9</v>
@@ -11994,23 +12027,47 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="6">
+        <v>720.3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="B14" s="7">
+        <v>734.33399999999995</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,46 +59,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平安</t>
+    <t>IDK</t>
   </si>
   <si>
-    <t>D2K</t>
+    <t>内江北</t>
   </si>
   <si>
-    <t>富宁</t>
+    <t>三元</t>
   </si>
   <si>
-    <t>白腊寨</t>
+    <t>白马西</t>
   </si>
   <si>
-    <t>DK</t>
+    <t>自贡东</t>
   </si>
   <si>
-    <t>广南</t>
+    <t>富顺</t>
   </si>
   <si>
-    <t>珠琳</t>
+    <t>泸县</t>
   </si>
   <si>
-    <t>普者黑</t>
+    <t>泸州</t>
   </si>
   <si>
-    <t>腻革龙</t>
-  </si>
-  <si>
-    <t>新哨</t>
-  </si>
-  <si>
-    <t>弥勒</t>
-  </si>
-  <si>
-    <t>石林板桥</t>
-  </si>
-  <si>
-    <t>阳宗海</t>
-  </si>
-  <si>
-    <t>昆明南</t>
+    <t>ID2K</t>
   </si>
 </sst>
 </file>
@@ -551,8 +536,8 @@
   <dimension ref="A1:G1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>310.25</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -618,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -626,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>356.27</v>
+        <v>13.44</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -641,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -649,7 +634,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>394.32499999999999</v>
+        <v>19.8</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -661,10 +646,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -672,22 +657,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>427.8</v>
+        <v>46.2</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -695,13 +680,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>474.25</v>
+        <v>68.89</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -710,7 +695,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -718,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>520.875</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -741,138 +726,78 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>569.78</v>
+        <v>132.03700000000001</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>621</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>632.70000000000005</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>685.65</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>720.3</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>734.33399999999995</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
@@ -11798,13 +11723,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>310.25</v>
+        <v>1.5</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -11813,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11821,7 +11746,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>356.27</v>
+        <v>13.44</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -11836,7 +11761,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11844,7 +11769,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>394.32499999999999</v>
+        <v>19.8</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -11856,10 +11781,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11867,22 +11792,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>427.8</v>
+        <v>46.2</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11890,13 +11815,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>474.25</v>
+        <v>68.89</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -11905,7 +11830,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11913,22 +11838,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <v>520.875</v>
+        <v>98.442999999999998</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11936,138 +11861,78 @@
         <v>7</v>
       </c>
       <c r="B9" s="6">
-        <v>569.78</v>
+        <v>132.03700000000001</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
       <c r="F9" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
-        <v>621</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>632.70000000000005</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>8</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
-        <v>685.65</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>9</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>720.3</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>734.33399999999995</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">

--- a/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
+++ b/Inter_face/Inter_face/bin/Debug/excelmodels/接标记数据_single.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>序号</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -59,31 +59,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IDK</t>
+    <t>DK</t>
   </si>
   <si>
-    <t>内江北</t>
+    <t>弥勒</t>
   </si>
   <si>
-    <t>三元</t>
+    <t>AK</t>
   </si>
   <si>
-    <t>白马西</t>
+    <t>竹园</t>
   </si>
   <si>
-    <t>自贡东</t>
+    <t>朋普</t>
   </si>
   <si>
-    <t>富顺</t>
+    <t>开远南</t>
   </si>
   <si>
-    <t>泸县</t>
-  </si>
-  <si>
-    <t>泸州</t>
-  </si>
-  <si>
-    <t>ID2K</t>
+    <t>红河机场站</t>
   </si>
 </sst>
 </file>
@@ -588,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -603,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -611,19 +605,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>13.44</v>
+        <v>26.283000000000001</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -634,19 +628,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>19.8</v>
+        <v>42.5</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
@@ -657,19 +651,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>46.2</v>
+        <v>77.52</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -680,19 +674,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>68.89</v>
+        <v>105.2</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>8</v>
@@ -702,47 +696,23 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>98.442999999999998</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>132.03700000000001</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
@@ -11723,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -11738,7 +11708,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -11746,19 +11716,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>13.44</v>
+        <v>26.283000000000001</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -11769,19 +11739,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6">
-        <v>19.8</v>
+        <v>42.5</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
       <c r="F5" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>8</v>
@@ -11792,19 +11762,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="7">
-        <v>46.2</v>
+        <v>77.52</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -11815,19 +11785,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="6">
-        <v>68.89</v>
+        <v>105.2</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
       <c r="F7" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>8</v>
@@ -11837,47 +11807,23 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
-        <v>98.442999999999998</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>132.03700000000001</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
